--- a/server/summaryTemplate.xlsx
+++ b/server/summaryTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prekols\fullStackAppl\visitTracking\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prekols\fullStackAppl\visitTracker\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF892F3-B198-4FB7-9C12-D1C56B82DEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC9418B-87EB-4C3C-AA3C-9A8812BE7EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Отделение "Ярославское-3" по адресу: Хибиннский проезд, дом 10</t>
   </si>
@@ -60,10 +60,13 @@
     <t xml:space="preserve">   Куратор                         _____________________________________             А.В. Павлов</t>
   </si>
   <si>
-    <t>У/П</t>
+    <t xml:space="preserve">                                                                                                      Табель учета питания группы № СИП-323/21                                            февраль 2024г.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                      Табель учета питания группы № СИП-323/21                                            февраль 2024г.</t>
+    <t>УП</t>
+  </si>
+  <si>
+    <t>УВ</t>
   </si>
 </sst>
 </file>
@@ -726,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK29" sqref="AK29"/>
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,9 +743,10 @@
     <col min="34" max="34" width="4.7109375" customWidth="1"/>
     <col min="35" max="35" width="5.28515625" customWidth="1"/>
     <col min="36" max="36" width="4.5703125" customWidth="1"/>
+    <col min="37" max="37" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B1" s="20"/>
       <c r="C1" s="26" t="s">
         <v>0</v>
@@ -779,9 +783,9 @@
       <c r="AG1" s="27"/>
       <c r="AH1" s="27"/>
     </row>
-    <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -817,7 +821,7 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -853,7 +857,7 @@
       <c r="AG3" s="28"/>
       <c r="AH3" s="28"/>
     </row>
-    <row r="4" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -957,13 +961,16 @@
         <v>3</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1004,15 +1011,19 @@
         <v>0</v>
       </c>
       <c r="AI5" s="12">
-        <f>COUNTIF(C5:AG5,"УП")</f>
+        <f>COUNTIF(C5:AG5,"УВ")</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="13">
         <f>COUNTIF(C5:AG5, "Н")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="13">
+        <f>COUNTIF(D5:AH5, "УП")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1053,15 +1064,19 @@
         <v>0</v>
       </c>
       <c r="AI6" s="12">
-        <f t="shared" ref="AI6:AI29" si="1">COUNTIF(C6:AG6,"УП")</f>
+        <f t="shared" ref="AI6:AI29" si="1">COUNTIF(C6:AG6,"УВ")</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="13">
-        <f t="shared" ref="AJ6:AJ29" si="2">COUNTIF(C6:AG6, "Н")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AJ6:AK29" si="2">COUNTIF(C6:AG6, "Н")</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="13">
+        <f t="shared" ref="AK6:AK29" si="3">COUNTIF(D6:AH6, "УП")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1109,8 +1124,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK7" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1158,8 +1177,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK8" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1207,8 +1230,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK9" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1256,8 +1283,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK10" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1305,8 +1336,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1354,8 +1389,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -1403,8 +1442,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK13" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -1452,8 +1495,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK14" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1501,8 +1548,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -1550,8 +1601,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK16" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -1599,8 +1654,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK17" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>14</v>
       </c>
@@ -1648,8 +1707,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>15</v>
       </c>
@@ -1697,8 +1760,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>16</v>
       </c>
@@ -1746,8 +1813,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK20" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>17</v>
       </c>
@@ -1795,8 +1866,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK21" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>18</v>
       </c>
@@ -1844,8 +1919,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>19</v>
       </c>
@@ -1893,8 +1972,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK23" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -1931,7 +2014,7 @@
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
       <c r="AH24" s="11">
-        <f t="shared" ref="AH24:AH29" si="3">COUNTIF(C24:AG24,"o")+COUNTIF(C24:AG24,"О")</f>
+        <f t="shared" ref="AH24:AH29" si="4">COUNTIF(C24:AG24,"o")+COUNTIF(C24:AG24,"О")</f>
         <v>0</v>
       </c>
       <c r="AI24" s="12">
@@ -1942,8 +2025,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK24" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -1980,7 +2067,7 @@
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
       <c r="AH25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="12">
@@ -1991,8 +2078,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -2029,7 +2120,7 @@
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="12">
@@ -2040,8 +2131,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>23</v>
       </c>
@@ -2078,7 +2173,7 @@
       <c r="AF27" s="23"/>
       <c r="AG27" s="23"/>
       <c r="AH27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="12">
@@ -2089,8 +2184,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -2138,8 +2237,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>25</v>
       </c>
@@ -2176,7 +2279,7 @@
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
       <c r="AH29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="12">
@@ -2187,132 +2290,136 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16">
-        <f t="shared" ref="C30:AG30" si="4">COUNTIF(C5:C29,"o")+COUNTIF(C5:C29,"О")</f>
+        <f t="shared" ref="C30:AG30" si="5">COUNTIF(C5:C29,"o")+COUNTIF(C5:C29,"О")</f>
         <v>0</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH30" s="16">
@@ -2327,8 +2434,12 @@
         <f>SUM(AJ5:AJ29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK30" s="16">
+        <f>SUM(AK5:AK29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -2365,7 +2476,7 @@
       <c r="AH31" s="29"/>
       <c r="AI31" s="29"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>5</v>
       </c>
